--- a/biology/Médecine/Fixateur_externe/Fixateur_externe.xlsx
+++ b/biology/Médecine/Fixateur_externe/Fixateur_externe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Un fixateur externe est un procédé chirurgical d'ostéosynthèse (fixation d'os) utilisant des fiches métalliques ou « broches » implantées dans l'os à travers la peau, reliées par une barre métallique solidarisée aux fiches par des étaux, serrés lors de la mise en place en salle d'opération.
 Cette technique permet principalement la réduction de fractures (surtout au niveau du poignet) et peut être utilisée pour l'allongement des jambes (dans ce cas, une distraction est appliquée après ostéotomie).
-Depuis quelques années, de mini-fixateurs externes sont utilisés dans certains cas de fracture de la main[1].
+Depuis quelques années, de mini-fixateurs externes sont utilisés dans certains cas de fracture de la main.
 Cette technique présente plusieurs avantages :
 technique simple et relativement rapide ;
 pas d'implant au niveau du foyer fracturaire ;
